--- a/Assets/Resources/CSV.data/StatInfo/EnemyGrowthStat.xlsx
+++ b/Assets/Resources/CSV.data/StatInfo/EnemyGrowthStat.xlsx
@@ -988,7 +988,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
